--- a/Projects/SANOFIKE/Data/Template.xlsx
+++ b/Projects/SANOFIKE/Data/Template.xlsx
@@ -1,36 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svetar\Desktop\SANOFI\Kenia\Kenya\updates_08.18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Desktop\Trax Updates\Final Submission\Kenya Final\fINAL kABISA\Sent to Sveta-13.08.2018\Kpi Template from Pavel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E486F635-3CC0-4BE5-BFDC-5D8EB34E423F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="8745" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="7" r:id="rId1"/>
     <sheet name="MSL" sheetId="2" r:id="rId2"/>
     <sheet name="Primary Shelf_Location" sheetId="3" r:id="rId3"/>
     <sheet name="Primary_Brand_Blocking" sheetId="4" r:id="rId4"/>
-    <sheet name="Primary&amp;Secondary_POSM" sheetId="5" r:id="rId5"/>
+    <sheet name="Primary&amp;Secondary_POSM" sheetId="8" r:id="rId5"/>
     <sheet name="Primary&amp;Secondary_Facings" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,6 +118,21 @@
             <charset val="204"/>
           </rPr>
           <t>Category of products in MSL in accordance with SKU template</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Indicate 1 for MSL / indicate 0 if not in MSL
+</t>
         </r>
       </text>
     </comment>
@@ -127,12 +141,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -193,6 +207,21 @@
             <charset val="204"/>
           </rPr>
           <t>Brand and Category required for shelf location KPI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Indicate 1 for MSL / indicate 0 if not in MSL
+</t>
         </r>
       </text>
     </comment>
@@ -201,12 +230,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -256,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -302,6 +331,21 @@
             <charset val="204"/>
           </rPr>
           <t>For multi SKU/brand/category in a single blocked together rule, please use a "," comma to seperate them</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Indicate 1 for MSL / indicate 0 if not in MSL
+</t>
         </r>
       </text>
     </comment>
@@ -310,12 +354,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -365,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -428,6 +472,21 @@
           </rPr>
           <t xml:space="preserve">
 Category of Required POSM in accordance with POSM template</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Indicate 1 for MSL / indicate 0 if not in MSL
+</t>
         </r>
       </text>
     </comment>
@@ -436,13 +495,13 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pavel Chernykh</author>
     <author>Kingori, Alphonse PH/KE/EXT</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -478,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -506,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -520,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -534,7 +593,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{01AB803A-FEA4-44C8-9A9F-C7740EB94C91}">
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">Indicate 1 for MSL / indicate 0 if not in MSL
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -558,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="1" shapeId="0" xr:uid="{77C6E516-A041-4599-816A-85C09DC9D0FF}">
+    <comment ref="C6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -587,7 +661,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="66">
   <si>
     <t>KPI Name</t>
   </si>
@@ -703,179 +777,95 @@
     <t>Primary Shelf_Location</t>
   </si>
   <si>
+    <t>Rhinathiol Promethazine Syrup 125 ML</t>
+  </si>
+  <si>
+    <t>3582910020967</t>
+  </si>
+  <si>
+    <t>Rhinathiol</t>
+  </si>
+  <si>
+    <t>Cough and Cold</t>
+  </si>
+  <si>
+    <t>Mucosolvan Suger Free Syrup 100 ML</t>
+  </si>
+  <si>
+    <t>315660-003</t>
+  </si>
+  <si>
+    <t>Enterogermina 10x5ML</t>
+  </si>
+  <si>
+    <t>3582910010975</t>
+  </si>
+  <si>
+    <t>Digestive Health</t>
+  </si>
+  <si>
+    <t>Buscopan Plus Tablets 50x10mg</t>
+  </si>
+  <si>
+    <t>A4-8841</t>
+  </si>
+  <si>
+    <t>Buscopan</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>Maalox Stomach Pain Lemon 20 units</t>
+  </si>
+  <si>
+    <t>3582910022084</t>
+  </si>
+  <si>
+    <t>Maalox</t>
+  </si>
+  <si>
+    <t>Maalox Plus Tablets 40 units</t>
+  </si>
+  <si>
+    <t>3582910065197</t>
+  </si>
+  <si>
+    <t>Rhinathiol Adult Syrup 125 ML,Rhinathiol Promethazine Syrup 125 ML</t>
+  </si>
+  <si>
+    <t>3582910045335, 3582910020967</t>
+  </si>
+  <si>
+    <t>Maalox Stomach Pain Lemon 20 units, Maalox Plus Tablets 40 units</t>
+  </si>
+  <si>
+    <t>3582910022084, 3582910065197</t>
+  </si>
+  <si>
+    <t>Rhinathiol Adult Syrup 125 ML</t>
+  </si>
+  <si>
+    <t>3582910045335</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Category 2</t>
+  </si>
+  <si>
     <t>Category 1</t>
-  </si>
-  <si>
-    <t>Category 2</t>
-  </si>
-  <si>
-    <t>Rhinathiol Adult Syrup 125 ML,Rhinathiol Promethazine Syrup 125 ML</t>
-  </si>
-  <si>
-    <t>Rhinathiol</t>
-  </si>
-  <si>
-    <t>Cough and Cold</t>
-  </si>
-  <si>
-    <t>3582910045335,3582910020967</t>
-  </si>
-  <si>
-    <t>Buscopan</t>
-  </si>
-  <si>
-    <t>Pain</t>
-  </si>
-  <si>
-    <t>Buscopan Plus Tablets 50x10mg,Buscopan Targeted Relief Tablets 50x10mg</t>
-  </si>
-  <si>
-    <t>A4-8841,4048846008435</t>
-  </si>
-  <si>
-    <t>Maalox</t>
-  </si>
-  <si>
-    <t>Digestive Health</t>
-  </si>
-  <si>
-    <t>Maalox Plus Suspension 150ml,Maalox Suspension 150ml,Maalox Suspension 350ml,Maalox Stomach Pain Lemon 20 units,Maalox Plus Tablets 40 units</t>
-  </si>
-  <si>
-    <t>6009609471956</t>
-  </si>
-  <si>
-    <t>6009609471956,6009609471987,6009609471994,3582910022084,3582910065197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cough and cold Category Shelf Strip </t>
-  </si>
-  <si>
-    <t>SAESA.CARP.18.04.0128</t>
-  </si>
-  <si>
-    <t>Cough and cold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhinathiol Shelf Strip </t>
-  </si>
-  <si>
-    <t>SAESA.CAR.18.12.0057</t>
-  </si>
-  <si>
-    <t>Enterogermina Tray</t>
-  </si>
-  <si>
-    <t>SAESA.BLC.18.02.0060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digestive Health </t>
-  </si>
-  <si>
-    <t>Digestive Health Category Shelf Strip</t>
-  </si>
-  <si>
-    <t>SAESA.MAAP.18.02.0058</t>
-  </si>
-  <si>
-    <t>Maalox  Shelf Strip</t>
-  </si>
-  <si>
-    <t>SAESA.MAAP.18.04.0130</t>
-  </si>
-  <si>
-    <t>Rhinathiol Promethazine Syrup 125 ML</t>
-  </si>
-  <si>
-    <t>3582910020967</t>
-  </si>
-  <si>
-    <t>Mucosolvan Suger Free Syrup 100 ML</t>
-  </si>
-  <si>
-    <t>315660-003</t>
-  </si>
-  <si>
-    <t>Enterogermina 10x5ML</t>
-  </si>
-  <si>
-    <t>3582910010975</t>
-  </si>
-  <si>
-    <t>Buscopan Plus Tablets 50x10mg</t>
-  </si>
-  <si>
-    <t>A4-8841</t>
-  </si>
-  <si>
-    <t>Maalox Stomach Pain Lemon 20 units</t>
-  </si>
-  <si>
-    <t>3582910022084</t>
-  </si>
-  <si>
-    <t>Maalox Plus Tablets 40 units</t>
-  </si>
-  <si>
-    <t>3582910065197</t>
-  </si>
-  <si>
-    <t>Rhinathiol Children Syrup 125 ML</t>
-  </si>
-  <si>
-    <t>3582910020950</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Rhinathiol Adult Syrup 125 ML</t>
-  </si>
-  <si>
-    <t>3582910045335</t>
-  </si>
-  <si>
-    <t>Rhinathiol Sugar Free Adult Syrup 200 ML</t>
-  </si>
-  <si>
-    <t>3582910062189</t>
-  </si>
-  <si>
-    <t>Buscopan Targeted Relief Tablets 50x10mg</t>
-  </si>
-  <si>
-    <t>4048846008435</t>
-  </si>
-  <si>
-    <t>Maalox Plus Suspension 150ml</t>
-  </si>
-  <si>
-    <t>Maalox Suspension 150ml</t>
-  </si>
-  <si>
-    <t>6009609471987</t>
-  </si>
-  <si>
-    <t>Maalox Suspension 350ml</t>
-  </si>
-  <si>
-    <t>6009609471994</t>
-  </si>
-  <si>
-    <t>Maalox Plus Suspension 350ml</t>
-  </si>
-  <si>
-    <t>6009609471963</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -947,6 +937,13 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -962,14 +959,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -977,7 +974,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -985,7 +982,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1022,47 +1019,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF002060"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -1075,7 +1031,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1144,32 +1100,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor rgb="FFC5E0B4"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="6" tint="0.59999389629810485"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1181,17 +1119,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFEFEFEF"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1247,27 +1185,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1277,50 +1198,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1329,7 +1207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1348,10 +1226,10 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="10" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1375,85 +1253,112 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1461,123 +1366,30 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="17" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1960,11 +1772,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,238 +1791,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="30" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="31" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="30" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="31" t="s">
+      <c r="E9" s="30"/>
+      <c r="F9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="30" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="33"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="33"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2220,11 +2032,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,8 +2045,9 @@
     <col min="2" max="2" width="42.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="5" customWidth="1"/>
-    <col min="6" max="7" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="5" customWidth="1"/>
     <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
@@ -2244,271 +2057,171 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="49"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="G1" s="57"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="64" t="s">
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="66">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="64" t="s">
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="66">
+      <c r="E4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="67" t="s">
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="66">
+      <c r="E5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="66">
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="72">
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="74">
+      <c r="B8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2520,11 +2233,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2543,32 +2256,32 @@
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>39</v>
+      <c r="F2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="H2" s="11"/>
     </row>
@@ -2576,9 +2289,10 @@
       <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
@@ -2678,7 +2392,7 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="14"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
@@ -2698,7 +2412,7 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
+      <c r="D15" s="13"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
@@ -2721,6 +2435,16 @@
       <c r="D17" s="14"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2732,123 +2456,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20.5703125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="40" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="36"/>
+    <col min="1" max="3" width="20.5703125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="48" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="F2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="39">
+      <c r="D3" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="34">
         <v>1</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="52" t="s">
+      <c r="B4" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="39">
+      <c r="D4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="34">
         <v>1</v>
       </c>
-      <c r="G4" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="39">
-        <v>1</v>
-      </c>
-      <c r="G5" s="39">
+      <c r="G4" s="34">
         <v>1</v>
       </c>
     </row>
@@ -2863,21 +2564,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="22" customWidth="1"/>
-    <col min="6" max="7" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" style="48" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="54" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="26" style="54" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="54" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="48" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="48" customWidth="1"/>
     <col min="8" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
@@ -2887,10 +2589,10 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
@@ -2908,157 +2610,95 @@
       <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="F2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="61">
-        <v>1</v>
-      </c>
-      <c r="G3" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="61">
-        <v>1</v>
-      </c>
-      <c r="G4" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="59">
-        <v>1</v>
-      </c>
-      <c r="G5" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="59">
-        <v>1</v>
-      </c>
-      <c r="G6" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="59">
-        <v>1</v>
-      </c>
-      <c r="G7" s="59">
-        <v>1</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="52" t="s">
         <v>4</v>
       </c>
+      <c r="B9" s="4"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="52" t="s">
         <v>4</v>
       </c>
+      <c r="B10" s="4"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
-        <v>4</v>
-      </c>
+      <c r="C11" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3071,408 +2711,217 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="27" customWidth="1"/>
-    <col min="6" max="7" width="9.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="25"/>
+    <col min="1" max="1" width="30.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="24" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" style="24" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="48" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="49"/>
-    </row>
-    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="G1" s="57"/>
+    </row>
+    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="60">
+        <v>2</v>
+      </c>
+      <c r="G3" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="C4" s="46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="83" t="s">
+      <c r="D4" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="60">
+        <v>3</v>
+      </c>
+      <c r="G4" s="60">
         <v>2</v>
       </c>
-      <c r="B3" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="78" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="75">
+      <c r="F5" s="60">
         <v>2</v>
       </c>
-      <c r="G3" s="75">
+      <c r="G5" s="60">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="83" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="75">
+      <c r="B6" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="60">
         <v>2</v>
       </c>
-      <c r="G4" s="75">
+      <c r="G6" s="60">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="75">
-        <v>3</v>
-      </c>
-      <c r="G5" s="75">
+      <c r="B7" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="60">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="83" t="s">
+      <c r="G7" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="86" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="87" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="75">
-        <v>0</v>
-      </c>
-      <c r="G6" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="83" t="s">
+      <c r="B8" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="62">
         <v>2</v>
       </c>
-      <c r="B7" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="75">
+      <c r="G8" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="75">
-        <v>2</v>
-      </c>
-      <c r="G8" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="75">
-        <v>0</v>
-      </c>
-      <c r="G9" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="75">
-        <v>2</v>
-      </c>
-      <c r="G10" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="75">
-        <v>0</v>
-      </c>
-      <c r="G11" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="75">
-        <v>0</v>
-      </c>
-      <c r="G12" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="86" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="75">
-        <v>0</v>
-      </c>
-      <c r="G13" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="76">
-        <v>0</v>
-      </c>
-      <c r="G14" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="76">
-        <v>2</v>
-      </c>
-      <c r="G15" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="83" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="88" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="77" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
-        <v>35</v>
+      <c r="B9" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
